--- a/df_tunning_hyper.xlsx
+++ b/df_tunning_hyper.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="18">
   <si>
     <t>score</t>
   </si>
@@ -425,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,7 +462,7 @@
         <v>0.9825072886297376</v>
       </c>
       <c r="C2">
-        <v>7.969089508056641</v>
+        <v>7.48981237411499</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -485,10 +485,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8775510204081632</v>
+        <v>0.8075801749271136</v>
       </c>
       <c r="C3">
-        <v>0.01297879219055176</v>
+        <v>3.328783988952637</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -511,10 +511,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9708454810495627</v>
+        <v>0.9300291545189504</v>
       </c>
       <c r="C4">
-        <v>0.04790401458740234</v>
+        <v>0.04844141006469727</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -537,10 +537,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9708454810495627</v>
+        <v>0.9446064139941691</v>
       </c>
       <c r="C5">
-        <v>0.01696372032165527</v>
+        <v>0.01994061470031738</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -563,10 +563,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9766763848396501</v>
+        <v>0.9650145772594753</v>
       </c>
       <c r="C6">
-        <v>0.1146931648254395</v>
+        <v>0.1301586627960205</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -592,7 +592,7 @@
         <v>0.9825072886297376</v>
       </c>
       <c r="C7">
-        <v>7.29693603515625</v>
+        <v>7.290068626403809</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -615,10 +615,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9183673469387755</v>
+        <v>0.8979591836734694</v>
       </c>
       <c r="C8">
-        <v>0.01292657852172852</v>
+        <v>0.01296854019165039</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -641,10 +641,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9212827988338192</v>
+        <v>0.9504373177842566</v>
       </c>
       <c r="C9">
-        <v>0.04587793350219727</v>
+        <v>0.04989838600158691</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -667,10 +667,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7784256559766763</v>
+        <v>0.9475218658892128</v>
       </c>
       <c r="C10">
-        <v>0.01797127723693848</v>
+        <v>0.01598095893859863</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
@@ -693,10 +693,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9766763848396501</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="C11">
-        <v>0.1126980781555176</v>
+        <v>0.1251780986785889</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
@@ -722,7 +722,7 @@
         <v>0.9825072886297376</v>
       </c>
       <c r="C12">
-        <v>7.16592001914978</v>
+        <v>7.25786280632019</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
@@ -745,10 +745,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9620991253644315</v>
+        <v>0.9329446064139941</v>
       </c>
       <c r="C13">
-        <v>0.01296687126159668</v>
+        <v>0.01196837425231934</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9650145772594753</v>
+        <v>0.956268221574344</v>
       </c>
       <c r="C14">
-        <v>0.04487800598144531</v>
+        <v>0.04487919807434082</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
@@ -797,10 +797,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8629737609329446</v>
+        <v>0.9067055393586005</v>
       </c>
       <c r="C15">
-        <v>0.01695513725280762</v>
+        <v>0.01794099807739258</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
@@ -823,10 +823,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9591836734693877</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="C16">
-        <v>0.1117007732391357</v>
+        <v>0.1196796894073486</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
@@ -852,7 +852,7 @@
         <v>0.9825072886297376</v>
       </c>
       <c r="C17">
-        <v>7.07109808921814</v>
+        <v>7.377131938934326</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
@@ -875,10 +875,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7784256559766763</v>
+        <v>0.9212827988338192</v>
       </c>
       <c r="C18">
-        <v>0.01299524307250977</v>
+        <v>0.01100039482116699</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
@@ -901,10 +901,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9329446064139941</v>
+        <v>0.9416909620991254</v>
       </c>
       <c r="C19">
-        <v>0.04787087440490723</v>
+        <v>0.04989886283874512</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
@@ -927,10 +927,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9766763848396501</v>
+        <v>0.956268221574344</v>
       </c>
       <c r="C20">
-        <v>0.02093863487243652</v>
+        <v>0.02094316482543945</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
@@ -953,10 +953,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9825072886297376</v>
+        <v>0.9854227405247813</v>
       </c>
       <c r="C21">
-        <v>0.111701488494873</v>
+        <v>0.1206767559051514</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
@@ -982,7 +982,7 @@
         <v>0.9825072886297376</v>
       </c>
       <c r="C22">
-        <v>6.879356145858765</v>
+        <v>7.476187229156494</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
@@ -1005,10 +1005,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8775510204081632</v>
+        <v>0.7755102040816326</v>
       </c>
       <c r="C23">
-        <v>0.01196813583374023</v>
+        <v>0.01199913024902344</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
@@ -1034,7 +1034,7 @@
         <v>0.9504373177842566</v>
       </c>
       <c r="C24">
-        <v>0.04890108108520508</v>
+        <v>0.05086421966552734</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
@@ -1057,10 +1057,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9416909620991254</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="C25">
-        <v>0.02196574211120605</v>
+        <v>0.01994872093200684</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -1083,10 +1083,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.9825072886297376</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="C26">
-        <v>0.1186835765838623</v>
+        <v>0.1256136894226074</v>
       </c>
       <c r="D26" t="s">
         <v>7</v>
@@ -1101,656 +1101,6 @@
         <v>15</v>
       </c>
       <c r="H26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>0.9825072886297376</v>
-      </c>
-      <c r="C27">
-        <v>8.235322713851929</v>
-      </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>0.9591836734693877</v>
-      </c>
-      <c r="C28">
-        <v>0.01495909690856934</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>0.9300291545189504</v>
-      </c>
-      <c r="C29">
-        <v>0.04388117790222168</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s">
-        <v>15</v>
-      </c>
-      <c r="H29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>0.8542274052478134</v>
-      </c>
-      <c r="C30">
-        <v>0.01795220375061035</v>
-      </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
-      <c r="E30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>14</v>
-      </c>
-      <c r="H30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>0.9737609329446064</v>
-      </c>
-      <c r="C31">
-        <v>0.1196808815002441</v>
-      </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>0.9825072886297376</v>
-      </c>
-      <c r="C32">
-        <v>8.204300403594971</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>0.7725947521865889</v>
-      </c>
-      <c r="C33">
-        <v>0.03390789031982422</v>
-      </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>0.9475218658892128</v>
-      </c>
-      <c r="C34">
-        <v>0.07380485534667969</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-      <c r="E34" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>0.9329446064139941</v>
-      </c>
-      <c r="C35">
-        <v>0.01994752883911133</v>
-      </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
-      <c r="E35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" t="s">
-        <v>14</v>
-      </c>
-      <c r="H35" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>0.967930029154519</v>
-      </c>
-      <c r="C36">
-        <v>0.1296532154083252</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>15</v>
-      </c>
-      <c r="H36" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>0.9825072886297376</v>
-      </c>
-      <c r="C37">
-        <v>7.248633146286011</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>0.8717201166180758</v>
-      </c>
-      <c r="C38">
-        <v>0.01698136329650879</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" t="s">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>0.9446064139941691</v>
-      </c>
-      <c r="C39">
-        <v>0.05089449882507324</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>0.8892128279883382</v>
-      </c>
-      <c r="C40">
-        <v>0.02393722534179688</v>
-      </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>14</v>
-      </c>
-      <c r="H40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>0.9737609329446064</v>
-      </c>
-      <c r="C41">
-        <v>0.1635627746582031</v>
-      </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
-      <c r="E41" t="s">
-        <v>12</v>
-      </c>
-      <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>15</v>
-      </c>
-      <c r="H41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>0.9825072886297376</v>
-      </c>
-      <c r="C42">
-        <v>7.981402635574341</v>
-      </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" t="s">
-        <v>13</v>
-      </c>
-      <c r="H42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>0.8892128279883382</v>
-      </c>
-      <c r="C43">
-        <v>0.0139613151550293</v>
-      </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s">
-        <v>14</v>
-      </c>
-      <c r="H43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>0.9300291545189504</v>
-      </c>
-      <c r="C44">
-        <v>0.04588460922241211</v>
-      </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>0.9533527696793003</v>
-      </c>
-      <c r="C45">
-        <v>0.01695466041564941</v>
-      </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
-      <c r="E45" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s">
-        <v>14</v>
-      </c>
-      <c r="H45" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>0.9825072886297376</v>
-      </c>
-      <c r="C46">
-        <v>0.1166882514953613</v>
-      </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E46" t="s">
-        <v>12</v>
-      </c>
-      <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>0.9825072886297376</v>
-      </c>
-      <c r="C47">
-        <v>8.873954296112061</v>
-      </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>0.9446064139941691</v>
-      </c>
-      <c r="C48">
-        <v>0.01395845413208008</v>
-      </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s">
-        <v>14</v>
-      </c>
-      <c r="H48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>0.9387755102040817</v>
-      </c>
-      <c r="C49">
-        <v>0.0468747615814209</v>
-      </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s">
-        <v>15</v>
-      </c>
-      <c r="H49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>0.9650145772594753</v>
-      </c>
-      <c r="C50">
-        <v>0.02393627166748047</v>
-      </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
-      <c r="E50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s">
-        <v>14</v>
-      </c>
-      <c r="H50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>0.9766763848396501</v>
-      </c>
-      <c r="C51">
-        <v>0.117809534072876</v>
-      </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" t="s">
-        <v>12</v>
-      </c>
-      <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" t="s">
         <v>17</v>
       </c>
     </row>

--- a/df_tunning_hyper.xlsx
+++ b/df_tunning_hyper.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="21">
   <si>
     <t>score</t>
   </si>
@@ -40,22 +40,31 @@
     <t>Chinatown</t>
   </si>
   <si>
-    <t>num_kernels=10_000</t>
-  </si>
-  <si>
     <t>n_random_points=1 nb_inst_per_class=1</t>
   </si>
   <si>
     <t>n_random_points=1 nb_inst_per_class=10</t>
   </si>
   <si>
+    <t>n_random_points=1 nb_inst_per_class=100</t>
+  </si>
+  <si>
     <t>n_random_points=10 nb_inst_per_class=1</t>
   </si>
   <si>
     <t>n_random_points=10 nb_inst_per_class=10</t>
   </si>
   <si>
-    <t>0</t>
+    <t>n_random_points=10 nb_inst_per_class=100</t>
+  </si>
+  <si>
+    <t>n_random_points=100 nb_inst_per_class=1</t>
+  </si>
+  <si>
+    <t>n_random_points=100 nb_inst_per_class=10</t>
+  </si>
+  <si>
+    <t>n_random_points=100 nb_inst_per_class=100</t>
   </si>
   <si>
     <t>1</t>
@@ -64,7 +73,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>Rocket</t>
+    <t>100</t>
   </si>
   <si>
     <t>Rsast</t>
@@ -425,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,10 +468,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9825072886297376</v>
+        <v>0.7259475218658892</v>
       </c>
       <c r="C2">
-        <v>7.48981237411499</v>
+        <v>0.01958012580871582</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -471,13 +480,13 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -485,10 +494,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8075801749271136</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="C3">
-        <v>3.328783988952637</v>
+        <v>0.06771063804626465</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -497,13 +506,13 @@
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -511,10 +520,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9300291545189504</v>
+        <v>0.8833819241982507</v>
       </c>
       <c r="C4">
-        <v>0.04844141006469727</v>
+        <v>0.1077671051025391</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -523,13 +532,13 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -537,10 +546,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9446064139941691</v>
+        <v>0.9212827988338192</v>
       </c>
       <c r="C5">
-        <v>0.01994061470031738</v>
+        <v>0.08506155014038086</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -549,13 +558,13 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -563,10 +572,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9650145772594753</v>
+        <v>0.9825072886297376</v>
       </c>
       <c r="C6">
-        <v>0.1301586627960205</v>
+        <v>0.162297248840332</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -575,13 +584,13 @@
         <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -592,22 +601,22 @@
         <v>0.9825072886297376</v>
       </c>
       <c r="C7">
-        <v>7.290068626403809</v>
+        <v>0.1606583595275879</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -615,25 +624,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8979591836734694</v>
+        <v>0.9183673469387755</v>
       </c>
       <c r="C8">
-        <v>0.01296854019165039</v>
+        <v>0.1326253414154053</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -641,25 +650,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9504373177842566</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="C9">
-        <v>0.04989838600158691</v>
+        <v>0.9170098304748535</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -667,25 +676,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9475218658892128</v>
+        <v>0.9854227405247813</v>
       </c>
       <c r="C10">
-        <v>0.01598095893859863</v>
+        <v>0.9142277240753174</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -693,25 +702,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9795918367346939</v>
+        <v>0.7725947521865889</v>
       </c>
       <c r="C11">
-        <v>0.1251780986785889</v>
+        <v>0.05486679077148438</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -719,25 +728,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9825072886297376</v>
+        <v>0.967930029154519</v>
       </c>
       <c r="C12">
-        <v>7.25786280632019</v>
+        <v>0.05012154579162598</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -745,25 +754,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9329446064139941</v>
+        <v>0.8775510204081632</v>
       </c>
       <c r="C13">
-        <v>0.01196837425231934</v>
+        <v>0.06610798835754395</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -771,25 +780,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.956268221574344</v>
+        <v>0.9358600583090378</v>
       </c>
       <c r="C14">
-        <v>0.04487919807434082</v>
+        <v>0.07063460350036621</v>
       </c>
       <c r="D14" t="s">
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -797,25 +806,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9067055393586005</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="C15">
-        <v>0.01794099807739258</v>
+        <v>0.1627762317657471</v>
       </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -823,25 +832,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9795918367346939</v>
+        <v>0.9708454810495627</v>
       </c>
       <c r="C16">
-        <v>0.1196796894073486</v>
+        <v>0.1511142253875732</v>
       </c>
       <c r="D16" t="s">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -849,25 +858,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9825072886297376</v>
+        <v>0.9387755102040817</v>
       </c>
       <c r="C17">
-        <v>7.377131938934326</v>
+        <v>0.09991836547851562</v>
       </c>
       <c r="D17" t="s">
         <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -875,25 +884,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9212827988338192</v>
+        <v>0.9825072886297376</v>
       </c>
       <c r="C18">
-        <v>0.01100039482116699</v>
+        <v>0.9103007316589355</v>
       </c>
       <c r="D18" t="s">
         <v>7</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -901,25 +910,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9416909620991254</v>
+        <v>0.9854227405247813</v>
       </c>
       <c r="C19">
-        <v>0.04989886283874512</v>
+        <v>0.9150276184082031</v>
       </c>
       <c r="D19" t="s">
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -927,25 +936,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.956268221574344</v>
+        <v>0.597667638483965</v>
       </c>
       <c r="C20">
-        <v>0.02094316482543945</v>
+        <v>0.02950453758239746</v>
       </c>
       <c r="D20" t="s">
         <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H20" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -953,25 +962,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9854227405247813</v>
+        <v>0.9620991253644315</v>
       </c>
       <c r="C21">
-        <v>0.1206767559051514</v>
+        <v>0.09080147743225098</v>
       </c>
       <c r="D21" t="s">
         <v>7</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -979,25 +988,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9825072886297376</v>
+        <v>0.9533527696793003</v>
       </c>
       <c r="C22">
-        <v>7.476187229156494</v>
+        <v>0.08479547500610352</v>
       </c>
       <c r="D22" t="s">
         <v>7</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1005,25 +1014,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7755102040816326</v>
+        <v>0.956268221574344</v>
       </c>
       <c r="C23">
-        <v>0.01199913024902344</v>
+        <v>0.05083799362182617</v>
       </c>
       <c r="D23" t="s">
         <v>7</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H23" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1031,25 +1040,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9504373177842566</v>
+        <v>0.9708454810495627</v>
       </c>
       <c r="C24">
-        <v>0.05086421966552734</v>
+        <v>0.1429510116577148</v>
       </c>
       <c r="D24" t="s">
         <v>7</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1057,25 +1066,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9387755102040817</v>
+        <v>0.9795918367346939</v>
       </c>
       <c r="C25">
-        <v>0.01994872093200684</v>
+        <v>0.1571705341339111</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1083,25 +1092,545 @@
         <v>24</v>
       </c>
       <c r="B26">
+        <v>0.9475218658892128</v>
+      </c>
+      <c r="C26">
+        <v>0.1020236015319824</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0.9854227405247813</v>
+      </c>
+      <c r="C27">
+        <v>0.9043674468994141</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0.9854227405247813</v>
+      </c>
+      <c r="C28">
+        <v>0.9111888408660889</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>0.9329446064139941</v>
+      </c>
+      <c r="C29">
+        <v>0.04810142517089844</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.9591836734693877</v>
+      </c>
+      <c r="C30">
+        <v>0.06974363327026367</v>
+      </c>
+      <c r="D30" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0.9504373177842566</v>
+      </c>
+      <c r="C31">
+        <v>0.07995700836181641</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0.8483965014577259</v>
+      </c>
+      <c r="C32">
+        <v>0.03589177131652832</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
         <v>0.9795918367346939</v>
       </c>
-      <c r="C26">
-        <v>0.1256136894226074</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="C33">
+        <v>0.1478121280670166</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
         <v>12</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0.9854227405247813</v>
+      </c>
+      <c r="C34">
+        <v>0.1800665855407715</v>
+      </c>
+      <c r="D34" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0.9387755102040817</v>
+      </c>
+      <c r="C35">
+        <v>0.1016719341278076</v>
+      </c>
+      <c r="D35" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0.9825072886297376</v>
+      </c>
+      <c r="C36">
+        <v>0.9183602333068848</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
         <v>15</v>
       </c>
-      <c r="G26" t="s">
+      <c r="F36" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>0.9854227405247813</v>
+      </c>
+      <c r="C37">
+        <v>0.8994524478912354</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" t="s">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+      <c r="H37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>0.6618075801749271</v>
+      </c>
+      <c r="C38">
+        <v>0.0196380615234375</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>0.924198250728863</v>
+      </c>
+      <c r="C39">
+        <v>0.04771614074707031</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>0.9591836734693877</v>
+      </c>
+      <c r="C40">
+        <v>0.09475064277648926</v>
+      </c>
+      <c r="D40" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>19</v>
+      </c>
+      <c r="H40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>0.9446064139941691</v>
+      </c>
+      <c r="C41">
+        <v>0.05872845649719238</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>0.9825072886297376</v>
+      </c>
+      <c r="C42">
+        <v>0.145756721496582</v>
+      </c>
+      <c r="D42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>0.9795918367346939</v>
+      </c>
+      <c r="C43">
+        <v>0.1758112907409668</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
+      <c r="H43" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>0.9271137026239067</v>
+      </c>
+      <c r="C44">
+        <v>0.1023552417755127</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>0.9825072886297376</v>
+      </c>
+      <c r="C45">
+        <v>0.9206464290618896</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
         <v>15</v>
       </c>
-      <c r="H26" t="s">
-        <v>17</v>
+      <c r="F45" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
+      </c>
+      <c r="H45" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>0.9825072886297376</v>
+      </c>
+      <c r="C46">
+        <v>0.9155373573303223</v>
+      </c>
+      <c r="D46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" t="s">
+        <v>19</v>
+      </c>
+      <c r="G46" t="s">
+        <v>19</v>
+      </c>
+      <c r="H46" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
